--- a/ExcelData/TC_CancelRegisterClass.xlsx
+++ b/ExcelData/TC_CancelRegisterClass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>dateAndTime</t>
   </si>
   <si>
-    <t>Sep 16, 2023 | 02:00 AM</t>
+    <t>Aug 31, 2023 | 01:00 PM</t>
   </si>
 </sst>
 </file>

--- a/ExcelData/TC_CancelRegisterClass.xlsx
+++ b/ExcelData/TC_CancelRegisterClass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>dateAndTime</t>
   </si>
   <si>
-    <t>Aug 31, 2023 | 01:00 PM</t>
+    <t>Sep 17, 2023 | 09:00 PM</t>
   </si>
 </sst>
 </file>
